--- a/testtest.xlsx
+++ b/testtest.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>UPC</t>
   </si>
@@ -27,9 +27,6 @@
     <t>Cost</t>
   </si>
   <si>
-    <t>Ebay Price</t>
-  </si>
-  <si>
     <t>Weight(lbs)</t>
   </si>
   <si>
@@ -55,6 +52,18 @@
   </si>
   <si>
     <t>612959003133</t>
+  </si>
+  <si>
+    <t>Skus</t>
+  </si>
+  <si>
+    <t>blank</t>
+  </si>
+  <si>
+    <t>List Price</t>
+  </si>
+  <si>
+    <t>Expected Profit</t>
   </si>
 </sst>
 </file>
@@ -372,158 +381,180 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" customWidth="1"/>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" customWidth="1"/>
-    <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" customWidth="1"/>
+    <col min="9" max="9" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
       </c>
       <c r="G1" t="s">
         <v>3</v>
       </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>201.19</v>
+      </c>
+      <c r="E2">
+        <v>119.76</v>
+      </c>
+      <c r="F2">
+        <v>9</v>
+      </c>
+      <c r="G2">
+        <v>11</v>
+      </c>
+      <c r="H2">
+        <v>13</v>
+      </c>
+      <c r="I2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="B2">
+      <c r="C3">
         <v>201.19</v>
       </c>
-      <c r="C2">
+      <c r="E3">
         <v>119.76</v>
       </c>
-      <c r="D2">
+      <c r="F3">
+        <v>9</v>
+      </c>
+      <c r="G3">
         <v>11</v>
       </c>
-      <c r="E2">
+      <c r="H3">
         <v>13</v>
       </c>
-      <c r="F2">
+      <c r="I3">
         <v>38</v>
       </c>
-      <c r="G2">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>201.19</v>
+      </c>
+      <c r="E4">
+        <v>119.76</v>
+      </c>
+      <c r="F4">
         <v>9</v>
       </c>
+      <c r="G4">
+        <v>11</v>
+      </c>
+      <c r="H4">
+        <v>13</v>
+      </c>
+      <c r="I4">
+        <v>38</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
         <v>201.19</v>
       </c>
-      <c r="C3">
+      <c r="E5">
         <v>119.76</v>
       </c>
-      <c r="D3">
+      <c r="F5">
+        <v>9</v>
+      </c>
+      <c r="G5">
         <v>11</v>
       </c>
-      <c r="E3">
+      <c r="H5">
         <v>13</v>
       </c>
-      <c r="F3">
+      <c r="I5">
         <v>38</v>
       </c>
-      <c r="G3">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>201.19</v>
+      </c>
+      <c r="E6">
+        <v>119.76</v>
+      </c>
+      <c r="F6">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4">
-        <v>201.19</v>
-      </c>
-      <c r="C4">
-        <v>119.76</v>
-      </c>
-      <c r="D4">
+      <c r="G6">
         <v>11</v>
       </c>
-      <c r="E4">
+      <c r="H6">
         <v>13</v>
       </c>
-      <c r="F4">
+      <c r="I6">
         <v>38</v>
-      </c>
-      <c r="G4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5">
-        <v>201.19</v>
-      </c>
-      <c r="C5">
-        <v>119.76</v>
-      </c>
-      <c r="D5">
-        <v>11</v>
-      </c>
-      <c r="E5">
-        <v>13</v>
-      </c>
-      <c r="F5">
-        <v>38</v>
-      </c>
-      <c r="G5">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6">
-        <v>201.19</v>
-      </c>
-      <c r="C6">
-        <v>119.76</v>
-      </c>
-      <c r="D6">
-        <v>11</v>
-      </c>
-      <c r="E6">
-        <v>13</v>
-      </c>
-      <c r="F6">
-        <v>38</v>
-      </c>
-      <c r="G6">
-        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/testtest.xlsx
+++ b/testtest.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
   <si>
     <t>UPC</t>
   </si>
@@ -48,22 +48,58 @@
     <t>612959003102</t>
   </si>
   <si>
-    <t>612959003119</t>
-  </si>
-  <si>
-    <t>612959003133</t>
-  </si>
-  <si>
     <t>Skus</t>
   </si>
   <si>
-    <t>blank</t>
-  </si>
-  <si>
     <t>List Price</t>
   </si>
   <si>
     <t>Expected Profit</t>
+  </si>
+  <si>
+    <t>090689112088</t>
+  </si>
+  <si>
+    <t>090689112095</t>
+  </si>
+  <si>
+    <t>MAP</t>
+  </si>
+  <si>
+    <t>088522400317</t>
+  </si>
+  <si>
+    <t>just us</t>
+  </si>
+  <si>
+    <t>088522500611</t>
+  </si>
+  <si>
+    <t>088522201112</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>has the wrong product listed under the UPC!!!</t>
+  </si>
+  <si>
+    <t>10 listings (listing price = 48.276)</t>
+  </si>
+  <si>
+    <t>4 listings (listing price = 46.6165)</t>
+  </si>
+  <si>
+    <t>612959900234</t>
+  </si>
+  <si>
+    <t>2 listings (list price = 257.076)</t>
+  </si>
+  <si>
+    <t>612959900296</t>
+  </si>
+  <si>
+    <t>3 listings (list price = 239.8575)</t>
   </si>
 </sst>
 </file>
@@ -99,8 +135,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -381,14 +418,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="43.85546875" customWidth="1"/>
     <col min="2" max="2" width="18.5703125" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
@@ -398,18 +436,18 @@
     <col min="9" max="9" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -426,16 +464,19 @@
       <c r="I1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2">
-        <v>201.19</v>
+        <v>159.96</v>
       </c>
       <c r="E2">
         <v>119.76</v>
@@ -453,9 +494,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -479,15 +520,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
       <c r="C4">
-        <v>201.19</v>
+        <v>201.18</v>
       </c>
       <c r="E4">
         <v>119.76</v>
@@ -505,55 +546,185 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
       <c r="C5">
-        <v>201.19</v>
+        <v>315.99</v>
       </c>
       <c r="E5">
-        <v>119.76</v>
+        <v>198.45</v>
       </c>
       <c r="F5">
-        <v>9</v>
+        <v>10.55</v>
       </c>
       <c r="G5">
+        <v>10</v>
+      </c>
+      <c r="H5">
+        <v>21</v>
+      </c>
+      <c r="I5">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6">
+        <v>315.99</v>
+      </c>
+      <c r="E6">
+        <v>198.45</v>
+      </c>
+      <c r="F6">
+        <v>9.9</v>
+      </c>
+      <c r="G6">
+        <v>10</v>
+      </c>
+      <c r="H6">
+        <v>21</v>
+      </c>
+      <c r="I6">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7">
+        <v>43.74</v>
+      </c>
+      <c r="E7">
+        <v>31.12</v>
+      </c>
+      <c r="F7">
+        <v>1.2</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7">
+        <v>7</v>
+      </c>
+      <c r="I7">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8">
+        <v>42.39</v>
+      </c>
+      <c r="E8">
+        <v>31.12</v>
+      </c>
+      <c r="F8">
+        <v>1.5</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8">
+        <v>7</v>
+      </c>
+      <c r="I8">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9">
+        <v>47.61</v>
+      </c>
+      <c r="E9">
+        <v>31.12</v>
+      </c>
+      <c r="F9">
+        <v>1.4</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9">
+        <v>7</v>
+      </c>
+      <c r="I9">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10">
+        <v>244.5</v>
+      </c>
+      <c r="E10">
+        <v>155.88999999999999</v>
+      </c>
+      <c r="F10">
+        <v>12</v>
+      </c>
+      <c r="G10">
         <v>11</v>
       </c>
-      <c r="H5">
+      <c r="H10">
         <v>13</v>
       </c>
-      <c r="I5">
+      <c r="I10">
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11">
+        <v>199.95</v>
+      </c>
+      <c r="E11">
+        <v>155.88999999999999</v>
+      </c>
+      <c r="F11">
         <v>12</v>
       </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6">
-        <v>201.19</v>
-      </c>
-      <c r="E6">
-        <v>119.76</v>
-      </c>
-      <c r="F6">
-        <v>9</v>
-      </c>
-      <c r="G6">
+      <c r="G11">
         <v>11</v>
       </c>
-      <c r="H6">
+      <c r="H11">
         <v>13</v>
       </c>
-      <c r="I6">
+      <c r="I11">
         <v>38</v>
       </c>
     </row>

--- a/testtest.xlsx
+++ b/testtest.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>UPC</t>
   </si>
@@ -84,22 +84,28 @@
     <t>has the wrong product listed under the UPC!!!</t>
   </si>
   <si>
-    <t>10 listings (listing price = 48.276)</t>
-  </si>
-  <si>
-    <t>4 listings (listing price = 46.6165)</t>
-  </si>
-  <si>
     <t>612959900234</t>
   </si>
   <si>
-    <t>2 listings (list price = 257.076)</t>
-  </si>
-  <si>
     <t>612959900296</t>
   </si>
   <si>
-    <t>3 listings (list price = 239.8575)</t>
+    <t>MAP (currently we might violate map if we scrape MAP skus)</t>
+  </si>
+  <si>
+    <t>just us (gave a different list price to simulate 1 listing)</t>
+  </si>
+  <si>
+    <t>4 listings (listing price = 46.62)</t>
+  </si>
+  <si>
+    <t>10 listings (listing price = 48.28)</t>
+  </si>
+  <si>
+    <t>2 listings (list price = 257.08)</t>
+  </si>
+  <si>
+    <t>3 listings (list price = 239.86)</t>
   </si>
 </sst>
 </file>
@@ -421,12 +427,12 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.85546875" customWidth="1"/>
+    <col min="1" max="1" width="67.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.5703125" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
@@ -496,7 +502,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -548,7 +554,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
@@ -600,7 +606,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
@@ -652,7 +658,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
         <v>18</v>
@@ -678,10 +684,10 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C10">
         <v>244.5</v>
@@ -704,10 +710,10 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C11">
         <v>199.95</v>
